--- a/inputs/backup/Readiness.xlsx
+++ b/inputs/backup/Readiness.xlsx
@@ -14,27 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Number</t>
   </si>
   <si>
+    <t>number</t>
+  </si>
+  <si>
     <t>Proveedor</t>
   </si>
   <si>
+    <t>Adiprima</t>
+  </si>
+  <si>
     <t>Origin</t>
   </si>
   <si>
+    <t>Kiev</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
+    <t>11.01.2022</t>
+  </si>
+  <si>
+    <t>Allocate</t>
+  </si>
+  <si>
     <t>Cntrs</t>
   </si>
   <si>
     <t>Tons</t>
   </si>
   <si>
+    <t>1.00</t>
+  </si>
+  <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -392,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,25 +453,54 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
-        <v>6</v>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
